--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_3_3.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_3_3.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1929713.473498039</v>
+        <v>-1931663.699326599</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>15817944.08047461</v>
+        <v>15817944.0804746</v>
       </c>
     </row>
     <row r="11">
@@ -662,22 +662,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>34.15332689027464</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,25 +704,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>171.7616403648713</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -814,31 +814,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>106.4853743943037</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -868,10 +868,10 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>34.33172564509493</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>187.5797976477833</v>
       </c>
     </row>
     <row r="5">
@@ -896,22 +896,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>249.4583271010301</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>193.0552439171458</v>
       </c>
     </row>
     <row r="6">
@@ -1063,19 +1063,19 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>134.6751203255735</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,13 +1096,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>173.6677896396943</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>46.175826339964</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>402.8852337526952</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>94.63926978364032</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1339,19 +1339,19 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>190.2713935802968</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1534,19 +1534,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1579,22 +1579,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>251.3172898460056</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>48.9838890439926</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1768,22 +1768,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>128.1000689154535</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>49.38162151975434</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1816,7 +1816,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
@@ -1825,13 +1825,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1850,7 +1850,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722624</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2008,19 +2008,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>46.25903264965491</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>130.0270532083358</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2065,10 +2065,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2245,19 +2245,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>106.1850234365637</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2296,16 +2296,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>78.84012649541587</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>220.7692587114728</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>204.1291651532053</v>
       </c>
     </row>
     <row r="26">
@@ -2713,25 +2713,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C28" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D28" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E28" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F28" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G28" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H28" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I28" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415255</v>
       </c>
       <c r="S28" t="n">
         <v>129.7889198539626</v>
       </c>
       <c r="T28" t="n">
-        <v>153.4156709287487</v>
+        <v>153.4156709287486</v>
       </c>
       <c r="U28" t="n">
         <v>218.1054622689367</v>
@@ -2950,25 +2950,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C31" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D31" t="n">
-        <v>80.48358288857141</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E31" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F31" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G31" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H31" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I31" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S31" t="n">
         <v>129.7889198539626</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D34" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789547</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="35">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898721</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857173</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692855</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373698</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H37" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="38">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692853</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="41">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898717</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E43" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4135,22 +4135,22 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D46" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I46" t="n">
         <v>42.28735533463133</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1254.177966138804</v>
+        <v>1763.586886263858</v>
       </c>
       <c r="C2" t="n">
-        <v>885.2154491983927</v>
+        <v>1394.624369323446</v>
       </c>
       <c r="D2" t="n">
-        <v>885.2154491983927</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E2" t="n">
-        <v>499.4271966001484</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F2" t="n">
-        <v>88.44129181054086</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V2" t="n">
-        <v>1993.54646147304</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W2" t="n">
-        <v>1640.777806202926</v>
+        <v>2523.652484589059</v>
       </c>
       <c r="X2" t="n">
-        <v>1640.777806202926</v>
+        <v>2150.18672632798</v>
       </c>
       <c r="Y2" t="n">
-        <v>1640.777806202926</v>
+        <v>2150.18672632798</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424004</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673422</v>
@@ -4410,19 +4410,19 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>466.142286122415</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="C4" t="n">
-        <v>466.142286122415</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="D4" t="n">
-        <v>358.5813018857447</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="E4" t="n">
-        <v>358.5813018857447</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F4" t="n">
-        <v>211.6913543878343</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G4" t="n">
-        <v>211.6913543878343</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T4" t="n">
-        <v>500.8207968750362</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U4" t="n">
-        <v>466.142286122415</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V4" t="n">
-        <v>466.142286122415</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W4" t="n">
-        <v>466.142286122415</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X4" t="n">
-        <v>466.142286122415</v>
+        <v>470.7225141620388</v>
       </c>
       <c r="Y4" t="n">
-        <v>466.142286122415</v>
+        <v>281.2479710834698</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>941.2608351981287</v>
+        <v>2149.375138862102</v>
       </c>
       <c r="C5" t="n">
-        <v>941.2608351981287</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="D5" t="n">
-        <v>941.2608351981287</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E5" t="n">
-        <v>555.4725825998845</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F5" t="n">
-        <v>548.527081850681</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4565,13 +4565,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4592,25 +4592,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2267.209817970484</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>1936.146930626913</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W5" t="n">
-        <v>1583.378275356799</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X5" t="n">
-        <v>1331.40016717394</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="Y5" t="n">
-        <v>941.2608351981287</v>
+        <v>2149.375138862102</v>
       </c>
     </row>
     <row r="6">
@@ -4620,55 +4620,55 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
         <v>2488.762748073963</v>
@@ -4683,10 +4683,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>190.2718927217162</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="C7" t="n">
-        <v>190.2718927217162</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="D7" t="n">
-        <v>190.2718927217162</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="E7" t="n">
-        <v>190.2718927217162</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="F7" t="n">
-        <v>190.2718927217162</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="G7" t="n">
-        <v>190.2718927217162</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H7" t="n">
-        <v>190.2718927217162</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>579.9823256406185</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>365.6939024587812</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T7" t="n">
-        <v>365.6939024587812</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U7" t="n">
-        <v>365.6939024587812</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V7" t="n">
-        <v>365.6939024587812</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W7" t="n">
-        <v>190.2718927217162</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X7" t="n">
-        <v>190.2718927217162</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y7" t="n">
-        <v>190.2718927217162</v>
+        <v>698.7120650600561</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1760.906005007191</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="C8" t="n">
-        <v>1391.943488066779</v>
+        <v>1390.593246102217</v>
       </c>
       <c r="D8" t="n">
-        <v>1345.301239238533</v>
+        <v>1032.327547495467</v>
       </c>
       <c r="E8" t="n">
-        <v>959.5129866402885</v>
+        <v>1032.327547495467</v>
       </c>
       <c r="F8" t="n">
-        <v>548.527081850681</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
@@ -4802,13 +4802,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4829,25 +4829,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2520.971603332393</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V8" t="n">
-        <v>2520.971603332393</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W8" t="n">
-        <v>2520.971603332393</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="X8" t="n">
-        <v>2147.505845071313</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="Y8" t="n">
-        <v>2147.505845071313</v>
+        <v>1759.555763042629</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424006</v>
@@ -4881,43 +4881,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,7 +4936,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="C10" t="n">
         <v>53.94298182036445</v>
@@ -4987,25 +4987,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>535.9356573576496</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>308.6274700262513</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>308.6274700262513</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V10" t="n">
-        <v>53.94298182036445</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W10" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240415</v>
       </c>
     </row>
     <row r="11">
@@ -5036,7 +5036,7 @@
         <v>179.8222783822458</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823785</v>
@@ -5118,28 +5118,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1208.995055864553</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N12" t="n">
-        <v>2013.406634128704</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>415.8104215925219</v>
+        <v>503.5547239186418</v>
       </c>
       <c r="C13" t="n">
-        <v>415.8104215925219</v>
+        <v>503.5547239186418</v>
       </c>
       <c r="D13" t="n">
-        <v>415.8104215925219</v>
+        <v>503.5547239186418</v>
       </c>
       <c r="E13" t="n">
-        <v>415.8104215925219</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="F13" t="n">
-        <v>415.8104215925219</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123426</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5227,22 +5227,22 @@
         <v>1387.841167119728</v>
       </c>
       <c r="T13" t="n">
-        <v>1164.055751909234</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U13" t="n">
-        <v>874.9271131227918</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V13" t="n">
-        <v>874.9271131227918</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="W13" t="n">
-        <v>874.9271131227918</v>
+        <v>1133.985318790429</v>
       </c>
       <c r="X13" t="n">
-        <v>646.9375622247744</v>
+        <v>905.9957678924117</v>
       </c>
       <c r="Y13" t="n">
-        <v>597.4588864227617</v>
+        <v>685.2031887488815</v>
       </c>
     </row>
     <row r="14">
@@ -5261,25 +5261,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5355,28 +5355,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>549.5984374701561</v>
+        <v>634.0455001582217</v>
       </c>
       <c r="L15" t="n">
-        <v>1099.417155020476</v>
+        <v>880.8106280646857</v>
       </c>
       <c r="M15" t="n">
-        <v>1406.737288300438</v>
+        <v>1188.130761344647</v>
       </c>
       <c r="N15" t="n">
-        <v>1736.599915964471</v>
+        <v>1517.99338900868</v>
       </c>
       <c r="O15" t="n">
-        <v>2016.139981183168</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>506.3210135240263</v>
+        <v>441.900558318119</v>
       </c>
       <c r="C16" t="n">
-        <v>506.3210135240263</v>
+        <v>441.900558318119</v>
       </c>
       <c r="D16" t="n">
-        <v>376.9270045185177</v>
+        <v>441.900558318119</v>
       </c>
       <c r="E16" t="n">
-        <v>376.9270045185177</v>
+        <v>293.9874647357258</v>
       </c>
       <c r="F16" t="n">
-        <v>376.9270045185177</v>
+        <v>147.0975172378155</v>
       </c>
       <c r="G16" t="n">
-        <v>208.7516828383384</v>
+        <v>147.0975172378155</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5464,22 +5464,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U16" t="n">
-        <v>1209.787631771461</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V16" t="n">
-        <v>955.1031435655738</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W16" t="n">
-        <v>955.1031435655738</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X16" t="n">
-        <v>727.1135926675564</v>
+        <v>441.900558318119</v>
       </c>
       <c r="Y16" t="n">
-        <v>506.3210135240263</v>
+        <v>441.900558318119</v>
       </c>
     </row>
     <row r="17">
@@ -5489,37 +5489,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D17" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
@@ -5540,25 +5540,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C18" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D18" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E18" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>2500.819361250803</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>2649.889045452863</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>2896.654173359327</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>3436.041841080101</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
-        <v>3765.904468744134</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>4045.444533962831</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>4565.745155698578</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q18" t="n">
-        <v>4860.854573014292</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S18" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T18" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U18" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V18" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W18" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X18" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y18" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="19">
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>781.5895395384766</v>
+        <v>807.0580565471719</v>
       </c>
       <c r="C19" t="n">
-        <v>612.6533566105697</v>
+        <v>638.121873619265</v>
       </c>
       <c r="D19" t="n">
-        <v>462.536717198234</v>
+        <v>488.0052342069292</v>
       </c>
       <c r="E19" t="n">
-        <v>415.8104215925219</v>
+        <v>340.0921406245361</v>
       </c>
       <c r="F19" t="n">
-        <v>415.8104215925219</v>
+        <v>340.0921406245361</v>
       </c>
       <c r="G19" t="n">
-        <v>247.6350999123426</v>
+        <v>340.0921406245361</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5698,25 +5698,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U19" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V19" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W19" t="n">
-        <v>1009.579090436494</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="X19" t="n">
-        <v>781.5895395384766</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="Y19" t="n">
-        <v>781.5895395384766</v>
+        <v>988.7065213774116</v>
       </c>
     </row>
     <row r="20">
@@ -5741,28 +5741,28 @@
         <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5829,22 +5829,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1103.683698656582</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
-        <v>1433.546326320615</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2103.010087623274</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
         <v>2317.834075963124</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>564.1830073829216</v>
+        <v>785.4801130615101</v>
       </c>
       <c r="C22" t="n">
-        <v>395.2468244550147</v>
+        <v>616.5439301336032</v>
       </c>
       <c r="D22" t="n">
-        <v>245.130185042679</v>
+        <v>466.4272907212675</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>466.4272907212675</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>466.4272907212675</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
@@ -5944,16 +5944,16 @@
         <v>1187.92115703528</v>
       </c>
       <c r="V22" t="n">
-        <v>933.2366688293931</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="W22" t="n">
-        <v>643.8194987924326</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="X22" t="n">
-        <v>643.8194987924326</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="Y22" t="n">
-        <v>564.1830073829216</v>
+        <v>967.1285778917498</v>
       </c>
     </row>
     <row r="23">
@@ -5987,22 +5987,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
         <v>4454.632848899127</v>
@@ -6066,28 +6066,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1208.995055864554</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1538.857683528586</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>693.7762810288177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>524.8400981009108</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>524.8400981009108</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028584</v>
@@ -6169,28 +6169,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1387.841167119728</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U25" t="n">
-        <v>1164.841915896018</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V25" t="n">
-        <v>1164.841915896018</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W25" t="n">
-        <v>875.4247458590575</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="X25" t="n">
-        <v>875.4247458590575</v>
+        <v>303.4081673726145</v>
       </c>
       <c r="Y25" t="n">
-        <v>875.4247458590575</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6203,19 +6203,19 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822463</v>
@@ -6227,7 +6227,7 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
@@ -6236,7 +6236,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6257,16 +6257,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6306,25 +6306,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>816.7950850315608</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1124.115218311523</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1453.977845975555</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C28" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D28" t="n">
         <v>478.0475988506726</v>
       </c>
       <c r="E28" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083205</v>
       </c>
       <c r="F28" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G28" t="n">
         <v>221.5295092103129</v>
@@ -6388,7 +6388,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L28" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M28" t="n">
         <v>1048.866260860496</v>
@@ -6403,7 +6403,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q28" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R28" t="n">
         <v>1996.265827986523</v>
@@ -6424,10 +6424,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X28" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y28" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="29">
@@ -6440,22 +6440,22 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
@@ -6464,10 +6464,10 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
@@ -6479,31 +6479,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6540,22 +6540,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>841.863114014129</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1443.347833878255</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
         <v>2317.834075963124</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108335</v>
       </c>
       <c r="C31" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229676</v>
       </c>
       <c r="D31" t="n">
-        <v>478.0475988506726</v>
+        <v>478.047598850673</v>
       </c>
       <c r="E31" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083209</v>
       </c>
       <c r="F31" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504516</v>
       </c>
       <c r="G31" t="n">
         <v>221.5295092103129</v>
@@ -6616,13 +6616,13 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K31" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L31" t="n">
         <v>709.8489468649691</v>
@@ -6640,7 +6640,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q31" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R31" t="n">
         <v>1996.265827986523</v>
@@ -6652,19 +6652,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U31" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V31" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W31" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X31" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045212</v>
       </c>
       <c r="Y31" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010321</v>
       </c>
     </row>
     <row r="32">
@@ -6686,10 +6686,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
@@ -6725,10 +6725,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
         <v>4262.3578574653</v>
@@ -6777,28 +6777,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1103.683698656582</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>1908.095276920732</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3481.79397174047</v>
+        <v>659.4602391108324</v>
       </c>
       <c r="C34" t="n">
-        <v>3381.677879852604</v>
+        <v>559.3441472229665</v>
       </c>
       <c r="D34" t="n">
-        <v>3300.381331480309</v>
+        <v>478.0475988506719</v>
       </c>
       <c r="E34" t="n">
-        <v>3221.288328937957</v>
+        <v>398.9545963083199</v>
       </c>
       <c r="F34" t="n">
-        <v>3143.218472480088</v>
+        <v>320.8847398504506</v>
       </c>
       <c r="G34" t="n">
-        <v>3043.863241839949</v>
+        <v>221.5295092103122</v>
       </c>
       <c r="H34" t="n">
-        <v>2962.265324427933</v>
+        <v>139.9315917982965</v>
       </c>
       <c r="I34" t="n">
-        <v>2919.550824089922</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>2999.384087782176</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>3217.020063255132</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L34" t="n">
-        <v>3532.182679494606</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M34" t="n">
-        <v>3871.199993490132</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N34" t="n">
-        <v>4209.194673746024</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O34" t="n">
-        <v>4510.520222979765</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P34" t="n">
-        <v>4754.570558813793</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014292</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
-        <v>4818.599560616159</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
-        <v>4687.499641571752</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T34" t="n">
-        <v>4532.5343174013</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>4312.225769654899</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
-        <v>4126.361372489053</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
-        <v>3905.764293492134</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X34" t="n">
-        <v>3746.594833634158</v>
+        <v>924.26110100452</v>
       </c>
       <c r="Y34" t="n">
-        <v>3594.622345530669</v>
+        <v>772.288612901031</v>
       </c>
     </row>
     <row r="35">
@@ -6923,10 +6923,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
@@ -6941,7 +6941,7 @@
         <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
@@ -6962,10 +6962,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
         <v>4262.3578574653</v>
@@ -7017,25 +7017,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>1026.505047571597</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1333.825180851558</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G37" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
@@ -7099,7 +7099,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7114,10 +7114,10 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S37" t="n">
         <v>1865.165908942116</v>
@@ -7135,10 +7135,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="38">
@@ -7160,10 +7160,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
@@ -7199,10 +7199,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U38" t="n">
         <v>4262.3578574653</v>
@@ -7251,28 +7251,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>841.863114014129</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>1646.27469227828</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108335</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229676</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D40" t="n">
-        <v>478.047598850673</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083205</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103131</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
@@ -7330,13 +7330,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649694</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7348,34 +7348,34 @@
         <v>1688.186490350129</v>
       </c>
       <c r="P40" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T40" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045212</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010321</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="41">
@@ -7397,10 +7397,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
@@ -7436,10 +7436,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U41" t="n">
         <v>4262.3578574653</v>
@@ -7491,25 +7491,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1427.741252113634</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>1757.603879777666</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2037.143944996363</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7549,28 +7549,28 @@
         <v>559.3441472229673</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
         <v>709.8489468649691</v>
@@ -7600,16 +7600,16 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W43" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y43" t="n">
         <v>772.2886129010318</v>
@@ -7625,34 +7625,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155879</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
@@ -7673,22 +7673,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7725,28 +7725,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1103.683698656582</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108327</v>
+        <v>659.4602391108336</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229669</v>
+        <v>559.3441472229678</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506722</v>
+        <v>478.0475988506731</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083201</v>
+        <v>398.9545963083211</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504508</v>
+        <v>320.8847398504519</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103123</v>
+        <v>221.5295092103131</v>
       </c>
       <c r="H46" t="n">
-        <v>139.9315917982967</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7825,31 +7825,31 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R46" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S46" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T46" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771664</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W46" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862498</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045214</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010313</v>
+        <v>772.2886129010323</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8058,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8073,7 +8073,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>199.0269485415591</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8301,7 +8301,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>346.2692436516221</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8541,13 +8541,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>275.0442842992665</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8766,31 +8766,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>38.86002301949912</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,13 +9003,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>223.6742649934481</v>
       </c>
       <c r="L15" t="n">
-        <v>306.114737013996</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9024,10 +9024,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9164,7 +9164,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>324.145412571165</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
@@ -9243,13 +9243,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>234.4116509503156</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9258,13 +9258,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9477,7 +9477,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9492,10 +9492,10 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>9.900512684485989</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9714,13 +9714,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9729,16 +9729,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>199.7396287231153</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9884,7 +9884,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119843</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
         <v>380.8001812627454</v>
@@ -9954,10 +9954,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>159.0121003135239</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9966,16 +9966,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10112,7 +10112,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711646</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
@@ -10188,10 +10188,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10200,13 +10200,13 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>274.365749697064</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10355,10 +10355,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119843</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
         <v>380.8001812627454</v>
@@ -10425,7 +10425,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10437,19 +10437,19 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>145.2351313103795</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10589,10 +10589,10 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504502</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10665,28 +10665,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>182.0340742867944</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10899,10 +10899,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10911,19 +10911,19 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>91.23759968302096</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11139,13 +11139,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -11154,13 +11154,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>297.2466435761031</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11373,7 +11373,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11385,19 +11385,19 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>96.03744927814694</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22559,7 +22559,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>379.6308431305204</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22601,13 +22601,13 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>3.701282094551952</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -22723,7 +22723,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22759,13 +22759,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>251.9501485968828</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -23422,19 +23422,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,22 +23467,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>35.20570849058538</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>169.6007643081022</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23656,22 +23656,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>20.51540410275888</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>99.53220684778179</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,7 +23704,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23713,13 +23713,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23896,19 +23896,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>100.1749299969143</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>18.88677515920034</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,7 +23938,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -23953,10 +23953,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24133,19 +24133,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>60.30854502681392</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24184,16 +24184,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>139.7445268566789</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,28 +24361,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,28 +24409,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>65.4680936871045</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>14.45548819888947</v>
       </c>
     </row>
     <row r="26">
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1324130.274311211</v>
+        <v>1324130.27431121</v>
       </c>
     </row>
     <row r="3">
@@ -26311,22 +26311,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>58099.54682262555</v>
+        <v>58099.54682262557</v>
       </c>
       <c r="C2" t="n">
         <v>61578.13273982122</v>
       </c>
       <c r="D2" t="n">
-        <v>61578.13273982122</v>
+        <v>61578.13273982123</v>
       </c>
       <c r="E2" t="n">
         <v>58654.3589606563</v>
       </c>
       <c r="F2" t="n">
-        <v>58654.35896065628</v>
+        <v>58654.3589606563</v>
       </c>
       <c r="G2" t="n">
-        <v>58654.35896065629</v>
+        <v>58654.35896065631</v>
       </c>
       <c r="H2" t="n">
         <v>58654.3589606563</v>
@@ -26335,13 +26335,13 @@
         <v>58654.35896065628</v>
       </c>
       <c r="J2" t="n">
+        <v>61578.13273982125</v>
+      </c>
+      <c r="K2" t="n">
+        <v>61578.13273982127</v>
+      </c>
+      <c r="L2" t="n">
         <v>61578.13273982128</v>
-      </c>
-      <c r="K2" t="n">
-        <v>61578.13273982125</v>
-      </c>
-      <c r="L2" t="n">
-        <v>61578.13273982125</v>
       </c>
       <c r="M2" t="n">
         <v>61578.13273982127</v>
@@ -26350,10 +26350,10 @@
         <v>61578.13273982127</v>
       </c>
       <c r="O2" t="n">
-        <v>61578.13273982126</v>
+        <v>61578.13273982125</v>
       </c>
       <c r="P2" t="n">
-        <v>61578.13273982126</v>
+        <v>61578.13273982128</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>54505.51210371254</v>
+        <v>54505.51210371256</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>139160.0369722519</v>
+        <v>139160.036972252</v>
       </c>
       <c r="C4" t="n">
         <v>165632.8677865244</v>
@@ -26427,10 +26427,10 @@
         <v>22174.60758687071</v>
       </c>
       <c r="F4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687073</v>
       </c>
       <c r="G4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687069</v>
       </c>
       <c r="H4" t="n">
         <v>22174.60758687071</v>
@@ -26445,7 +26445,7 @@
         <v>44593.39482819119</v>
       </c>
       <c r="L4" t="n">
-        <v>44593.39482819119</v>
+        <v>44593.39482819118</v>
       </c>
       <c r="M4" t="n">
         <v>44593.39482819119</v>
@@ -26454,7 +26454,7 @@
         <v>44593.39482819119</v>
       </c>
       <c r="O4" t="n">
-        <v>44593.39482819119</v>
+        <v>44593.39482819118</v>
       </c>
       <c r="P4" t="n">
         <v>44593.39482819119</v>
@@ -26479,16 +26479,16 @@
         <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
         <v>97715.10582002539</v>
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-753887.4474275804</v>
+        <v>-754003.4002914868</v>
       </c>
       <c r="C6" t="n">
         <v>-186913.8131101126</v>
@@ -26528,40 +26528,40 @@
         <v>-186913.8131101126</v>
       </c>
       <c r="E6" t="n">
-        <v>-580667.6110518272</v>
+        <v>-580765.0701777993</v>
       </c>
       <c r="F6" t="n">
-        <v>-55507.57457493106</v>
+        <v>-55605.03370090322</v>
       </c>
       <c r="G6" t="n">
-        <v>-55507.57457493105</v>
+        <v>-55605.03370090314</v>
       </c>
       <c r="H6" t="n">
-        <v>-55507.57457493103</v>
+        <v>-55605.03370090318</v>
       </c>
       <c r="I6" t="n">
-        <v>-55507.57457493109</v>
+        <v>-55605.03370090324</v>
       </c>
       <c r="J6" t="n">
         <v>-311659.0992047008</v>
       </c>
       <c r="K6" t="n">
-        <v>-80730.36790839533</v>
+        <v>-80730.36790839532</v>
       </c>
       <c r="L6" t="n">
-        <v>-80730.36790839533</v>
+        <v>-80730.36790839523</v>
       </c>
       <c r="M6" t="n">
-        <v>-215531.3831422324</v>
+        <v>-215531.3831422325</v>
       </c>
       <c r="N6" t="n">
-        <v>-80730.3679083953</v>
+        <v>-80730.36790839532</v>
       </c>
       <c r="O6" t="n">
         <v>-135235.8800121079</v>
       </c>
       <c r="P6" t="n">
-        <v>-80730.36790839532</v>
+        <v>-80730.3679083953</v>
       </c>
     </row>
   </sheetData>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>68.13189012964067</v>
+      </c>
+      <c r="K2" t="n">
+        <v>68.13189012964067</v>
+      </c>
+      <c r="L2" t="n">
+        <v>68.13189012964062</v>
+      </c>
+      <c r="M2" t="n">
         <v>68.13189012964065</v>
       </c>
-      <c r="K2" t="n">
-        <v>68.13189012964065</v>
-      </c>
-      <c r="L2" t="n">
-        <v>68.13189012964065</v>
-      </c>
-      <c r="M2" t="n">
-        <v>68.13189012964062</v>
-      </c>
       <c r="N2" t="n">
+        <v>68.13189012964067</v>
+      </c>
+      <c r="O2" t="n">
         <v>68.13189012964064</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>68.13189012964067</v>
-      </c>
-      <c r="P2" t="n">
-        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="3">
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
@@ -26747,10 +26747,10 @@
         <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541002</v>
@@ -26777,7 +26777,7 @@
         <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964072</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964072</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27382,10 +27382,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,25 +27424,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>173.7780462579898</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27534,31 +27534,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>42.13009862390869</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,31 +27579,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>31.00485570431147</v>
       </c>
     </row>
     <row r="5">
@@ -27616,22 +27616,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>120.2727735774389</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>193.1826947389077</v>
       </c>
     </row>
     <row r="6">
@@ -27783,19 +27783,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>10.74592769735776</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,13 +27816,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27834,7 +27834,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>112.8552086968967</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>308.507215280719</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>3.990811989016265</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28011,7 +28011,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>72.60755131498752</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28059,19 +28059,19 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>21.87414536972213</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28327,7 +28327,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -28570,7 +28570,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>-6.107776353646526e-13</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32075,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32084,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32102,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32312,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32321,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32339,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34384,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34393,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34445,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34454,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34472,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,13 +34787,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>220.2054057751866</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35021,19 +35021,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>410.005506727916</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,13 +35261,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>296.2227415328939</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
         <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>321.2237252606072</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>374.2497035813873</v>
       </c>
       <c r="L15" t="n">
-        <v>555.3724419700203</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,28 +35963,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>544.8360280007819</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
         <v>415.0406756005178</v>
@@ -36212,10 +36212,10 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>216.9939276160106</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36434,13 +36434,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
         <v>310.4243770504663</v>
@@ -36449,16 +36449,16 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>482.1033309642235</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36604,7 +36604,7 @@
         <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
         <v>713.1546070951472</v>
@@ -36674,10 +36674,10 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>408.2698052695482</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
         <v>310.4243770504663</v>
@@ -36686,16 +36686,16 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315247</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>80.63966029520618</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K28" t="n">
         <v>219.8343186595512</v>
@@ -36768,7 +36768,7 @@
         <v>304.3692416502436</v>
       </c>
       <c r="P28" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q28" t="n">
         <v>107.3575901015154</v>
@@ -36832,7 +36832,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
@@ -36908,10 +36908,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
@@ -36920,13 +36920,13 @@
         <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>607.5603230950769</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315247</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>80.63966029520618</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K31" t="n">
         <v>219.8343186595512</v>
@@ -37005,7 +37005,7 @@
         <v>304.3692416502436</v>
       </c>
       <c r="P31" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q31" t="n">
         <v>107.3575901015154</v>
@@ -37075,10 +37075,10 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
         <v>713.1546070951472</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
         <v>415.0406756005178</v>
@@ -37157,19 +37157,19 @@
         <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>427.5988335514877</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315247</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37239,7 +37239,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
         <v>246.5154907414414</v>
@@ -37309,10 +37309,10 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37385,28 +37385,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
         <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>515.2286476848074</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315247</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37476,7 +37476,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P37" t="n">
         <v>246.5154907414414</v>
@@ -37619,10 +37619,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
@@ -37631,19 +37631,19 @@
         <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>373.6013019241291</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520617</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37713,10 +37713,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,13 +37859,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
         <v>333.1945733980129</v>
@@ -37874,13 +37874,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>504.3400585076278</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37950,10 +37950,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38014,16 +38014,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
         <v>415.0406756005178</v>
@@ -38102,22 +38102,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>429.2320226761599</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38187,7 +38187,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
         <v>246.5154907414414</v>
